--- a/files/Book1.xlsx
+++ b/files/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\git-lfs-example\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34210603-3006-4EA3-B885-D6631A3F9DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F406C74E-37E3-4FA4-9EAA-8B5892B9F463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{6DEA682A-734C-43D1-9B62-7873AE059471}"/>
   </bookViews>
@@ -36,9 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Test file</t>
+  </si>
+  <si>
+    <t>sd</t>
   </si>
 </sst>
 </file>
@@ -410,15 +413,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5377C046-FC6F-4EFA-AF3E-7C49BBCDB459}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C6" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/files/Book1.xlsx
+++ b/files/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\git-lfs-example\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Open Source\git-lfs-example\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F406C74E-37E3-4FA4-9EAA-8B5892B9F463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76BD0C9-6665-499C-854D-60EE5E23FC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{6DEA682A-734C-43D1-9B62-7873AE059471}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6DEA682A-734C-43D1-9B62-7873AE059471}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t>Test file</t>
   </si>
@@ -48,7 +46,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,21 +411,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5377C046-FC6F-4EFA-AF3E-7C49BBCDB459}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4">
       <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>1</v>
       </c>
     </row>
